--- a/biology/Botanique/Oxalidales/Oxalidales.xlsx
+++ b/biology/Botanique/Oxalidales/Oxalidales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oxalidales sont un ordre  de plantes dicotylédones. En classification phylogénétique des Angiospermes, les Oxalidales appartiennent au groupe des Fabidées (Eurosids I), lui-même rattaché aux Rosidées (Rosids) puis au noyau des Dicotylédones vraies.
-En classification phylogénétique APG III (2009)[1], la circonscription est :
+En classification phylogénétique APG III (2009), la circonscription est :
 ordre des Oxalidales
 famille des Brunelliaceae Engl. (1897)
 famille des Cephalotaceae Dumort. (1829)
@@ -492,14 +504,14 @@
 famille des Elaeocarpaceae Juss. ex DC. (1816)
 famille des Huaceae A.Chev. (1947)
 famille des Oxalidaceae R.Br. (1818)
-En classification phylogénétique APG (1998)[2] la circonscription était :
+En classification phylogénétique APG (1998) la circonscription était :
 ordre des Oxalidales
 famille des Cephalotaceae
 famille des Connaraceae
 famille des Cunoniaceae
 famille des Elaeocarpaceae
 famille des Oxalidaceae (famille des oxalis)
-En classification phylogénétique APG II (2003)[3] la circonscription est un peu modifiée :
+En classification phylogénétique APG II (2003) la circonscription est un peu modifiée :
 ordre des Oxalidales
 famille des Brunelliaceae
 famille des Cephalotaceae
@@ -516,7 +528,7 @@
 famille des Elaeocarpaceae
 famille des Huaceae
 famille des Oxalidaceae
-Dans la classification classique de Cronquist (1981)[4] la plupart de ces familles étaient classées dans les Rosales, mais les Oxalidacées étaient classées dans les Geraniales et les Élaeocarpacées partagées entre les Malvales et les Polygalales, traitées dans ce dernier cas comme les Tremandracées.
+Dans la classification classique de Cronquist (1981) la plupart de ces familles étaient classées dans les Rosales, mais les Oxalidacées étaient classées dans les Geraniales et les Élaeocarpacées partagées entre les Malvales et les Polygalales, traitées dans ce dernier cas comme les Tremandracées.
 </t>
         </is>
       </c>
